--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,11 +1150,15 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44585</v>
+      </c>
+      <c r="G5" s="8">
+        <v>19452</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>34573</v>
+        <v>1401</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
@@ -1170,11 +1174,15 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44585</v>
+      </c>
+      <c r="G6" s="8">
+        <v>13720</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1190,7 +1198,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1206,7 +1214,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1222,7 +1230,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1238,7 +1246,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1254,7 +1262,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1270,7 +1278,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1286,7 +1294,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1302,7 +1310,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1318,7 +1326,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1334,7 +1342,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1350,7 +1358,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1366,7 +1374,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1382,7 +1390,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1398,7 +1406,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1414,7 +1422,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1430,7 +1438,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1446,7 +1454,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1462,7 +1470,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1478,7 +1486,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1494,7 +1502,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1510,7 +1518,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1526,7 +1534,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1542,7 +1550,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1558,7 +1566,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1574,7 +1582,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1590,7 +1598,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1606,7 +1614,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1623,7 +1631,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1656,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>33172</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>52668</v>
+        <v>19496</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,23 +1186,27 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44592</v>
+      </c>
+      <c r="B7" s="16">
+        <v>29396</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1618,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1660,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>52668</v>
+        <v>82064</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1687,7 +1691,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>19496</v>
+        <v>48892</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>1401</v>
+        <v>-30450</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>19496</v>
+        <v>-12355</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,31 +1198,43 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44609</v>
+      </c>
+      <c r="G7" s="16">
+        <v>14800</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>48892</v>
+        <v>17041</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44597</v>
+      </c>
+      <c r="B8" s="16">
+        <v>14800</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44609</v>
+      </c>
+      <c r="G8" s="16">
+        <v>17051</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1246,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1262,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1278,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1294,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,11 +1310,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1326,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1342,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1358,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1374,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1390,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1406,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1422,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1438,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1454,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1470,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1486,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1502,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1518,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1534,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1550,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1566,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1582,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1598,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1614,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1630,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1647,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1672,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>82064</v>
+        <v>96864</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1668,7 +1680,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>33172</v>
+        <v>65023</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1691,7 +1703,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>48892</v>
+        <v>31841</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,7 +1073,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44624</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-30450</v>
+        <v>-66130</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-12355</v>
+        <v>-48035</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>17041</v>
+        <v>-18639</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,43 +1230,55 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>31841</v>
+        <v>-3839</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>44627</v>
+      </c>
+      <c r="B9" s="13">
+        <v>38082</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44670</v>
+      </c>
+      <c r="G9" s="16">
+        <v>35680</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>31841</v>
+        <v>34243</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44642</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44628</v>
+      </c>
+      <c r="B10" s="13">
+        <v>17729</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1290,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1306,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1310,11 +1322,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1338,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1354,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1370,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1386,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1402,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1418,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1434,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1450,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1466,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1482,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1498,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1514,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1530,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1546,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1562,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1578,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1594,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1610,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1626,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1642,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1659,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44642</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1672,7 +1684,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>96864</v>
+        <v>152675</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1680,7 +1692,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>65023</v>
+        <v>100703</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1703,7 +1715,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>31841</v>
+        <v>51972</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-66130</v>
+        <v>-107868</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-48035</v>
+        <v>-89773</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-18639</v>
+        <v>-60377</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-3839</v>
+        <v>-45577</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>34243</v>
+        <v>-7495</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,47 +1270,59 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44694</v>
+      </c>
+      <c r="G10" s="16">
+        <v>41738</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>10234</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="52">
+        <v>44680</v>
+      </c>
+      <c r="B11" s="17">
+        <v>45072</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>55306</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="52">
+        <v>44686</v>
+      </c>
+      <c r="B12" s="17">
+        <v>24191</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1322,11 +1334,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1350,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1366,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1382,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1398,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1414,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1430,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1446,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1462,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1478,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1494,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1510,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1526,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1542,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1558,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1574,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1590,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1606,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1622,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1638,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1654,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1659,11 +1671,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44685</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1684,7 +1696,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>152675</v>
+        <v>221938</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1692,7 +1704,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>100703</v>
+        <v>142441</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1715,7 +1727,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>51972</v>
+        <v>79497</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44694</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,7 +1073,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-107868</v>
+        <v>-129981</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-89773</v>
+        <v>-111886</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-60377</v>
+        <v>-82490</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-45577</v>
+        <v>-67690</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-7495</v>
+        <v>-29608</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>10234</v>
+        <v>-11879</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,15 +1294,19 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>44744</v>
+      </c>
+      <c r="G11" s="16">
+        <v>22113</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>55306</v>
+        <v>33193</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,43 +1322,51 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>57384</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="52">
+        <v>44740</v>
+      </c>
+      <c r="B13" s="13">
+        <v>35403</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>92787</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="52">
+        <v>44741</v>
+      </c>
+      <c r="B14" s="17">
+        <v>33958</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1378,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1394,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1410,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1426,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1442,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1458,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1474,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1490,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1506,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1522,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1538,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1554,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1570,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1586,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1602,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1618,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1634,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1650,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1666,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,11 +1683,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1696,7 +1708,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>221938</v>
+        <v>291299</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1704,7 +1716,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>142441</v>
+        <v>164554</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1727,7 +1739,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>79497</v>
+        <v>126745</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-129981</v>
+        <v>-248681</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>255</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-111886</v>
+        <v>-230586</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-82490</v>
+        <v>-201190</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-67690</v>
+        <v>-186390</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-29608</v>
+        <v>-148308</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-11879</v>
+        <v>-130579</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>33193</v>
+        <v>-85507</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,15 +1318,19 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>44749</v>
+      </c>
+      <c r="G12" s="16">
+        <v>18673</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>57384</v>
+        <v>-61316</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1338,15 +1342,19 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>44753</v>
+      </c>
+      <c r="G13" s="13">
+        <v>14993</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>92787</v>
+        <v>-25913</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,63 +1366,83 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15">
+        <v>44775</v>
+      </c>
+      <c r="G14" s="16">
+        <v>49000</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>8045</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="52">
+        <v>44746</v>
+      </c>
+      <c r="B15" s="17">
+        <v>23761</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="15">
+        <v>44783</v>
+      </c>
+      <c r="G15" s="16">
+        <v>36034</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>31806</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="52">
+        <v>44772</v>
+      </c>
+      <c r="B16" s="17">
+        <v>41532</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>73338</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="52">
+        <v>44774</v>
+      </c>
+      <c r="B17" s="13">
+        <v>21632</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1454,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1470,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1486,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1502,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1518,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1534,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1550,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1566,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1582,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1598,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1614,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1630,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1646,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1662,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1678,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1694,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,11 +1711,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1708,7 +1736,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>291299</v>
+        <v>378224</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1716,7 +1744,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>164554</v>
+        <v>283254</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1739,7 +1767,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>126745</v>
+        <v>94970</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,23 +1442,27 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="52">
+        <v>44783</v>
+      </c>
+      <c r="B18" s="13">
+        <v>40041</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1618,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1634,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1650,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1666,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1678,11 +1682,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1694,11 +1698,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1711,11 +1715,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44783</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1736,7 +1740,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>378224</v>
+        <v>418265</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1767,7 +1771,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>94970</v>
+        <v>135011</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,23 +1462,27 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="52">
+        <v>44795</v>
+      </c>
+      <c r="B19" s="13">
+        <v>54586</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1638,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1654,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1670,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,11 +1686,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1698,11 +1702,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,11 +1719,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1740,7 +1744,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>418265</v>
+        <v>472851</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1771,7 +1775,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>135011</v>
+        <v>189597</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-248681</v>
+        <v>-318282</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-230586</v>
+        <v>-300187</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-201190</v>
+        <v>-270791</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-186390</v>
+        <v>-255991</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-148308</v>
+        <v>-217909</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-130579</v>
+        <v>-200180</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-85507</v>
+        <v>-155108</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1326,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-61316</v>
+        <v>-130917</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-25913</v>
+        <v>-95514</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>8045</v>
+        <v>-61556</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1398,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>31806</v>
+        <v>-37795</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,15 +1414,19 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="15">
+        <v>44819</v>
+      </c>
+      <c r="G16" s="16">
+        <v>48500</v>
+      </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>73338</v>
+        <v>3737</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,15 +1438,19 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="15">
+        <v>44822</v>
+      </c>
+      <c r="G17" s="16">
+        <v>21101</v>
+      </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>94970</v>
+        <v>25369</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1466,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>135011</v>
+        <v>65410</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,27 +1486,31 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>119996</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="52">
+        <v>44799</v>
+      </c>
+      <c r="B20" s="13">
+        <v>39779</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1522,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1538,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1554,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1570,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1586,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1602,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1618,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1634,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1650,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1666,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,11 +1682,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,11 +1698,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1702,11 +1714,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1719,11 +1731,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44816</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1744,7 +1756,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>472851</v>
+        <v>512630</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1752,7 +1764,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>283254</v>
+        <v>352855</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1775,7 +1787,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>189597</v>
+        <v>159775</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44822</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44825</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-318282</v>
+        <v>-351483</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-300187</v>
+        <v>-333388</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-270791</v>
+        <v>-303992</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-255991</v>
+        <v>-289192</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-217909</v>
+        <v>-251110</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-200180</v>
+        <v>-233381</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-155108</v>
+        <v>-188309</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1326,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-130917</v>
+        <v>-164118</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-95514</v>
+        <v>-128715</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-61556</v>
+        <v>-94757</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1398,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-37795</v>
+        <v>-70996</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1422,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>3737</v>
+        <v>-29464</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1446,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>25369</v>
+        <v>-7832</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,15 +1462,19 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="15">
+        <v>44841</v>
+      </c>
+      <c r="G18" s="16">
+        <v>33201</v>
+      </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>65410</v>
+        <v>32209</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>119996</v>
+        <v>86795</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1638,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1654,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1670,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,11 +1686,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1698,11 +1702,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1714,11 +1718,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1731,11 +1735,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1764,7 +1768,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>352855</v>
+        <v>386056</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1787,7 +1791,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>159775</v>
+        <v>126574</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44842</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-351483</v>
+        <v>-393055</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-333388</v>
+        <v>-374960</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-303992</v>
+        <v>-345564</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-289192</v>
+        <v>-330764</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-251110</v>
+        <v>-292682</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-233381</v>
+        <v>-274953</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-188309</v>
+        <v>-229881</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1326,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-164118</v>
+        <v>-205690</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-128715</v>
+        <v>-170287</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-94757</v>
+        <v>-136329</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1398,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-70996</v>
+        <v>-112568</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1422,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-29464</v>
+        <v>-71036</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1446,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-7832</v>
+        <v>-49404</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>32209</v>
+        <v>-9363</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,15 +1486,19 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="15">
+        <v>44865</v>
+      </c>
+      <c r="G19" s="16">
+        <v>41572</v>
+      </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>86795</v>
+        <v>45223</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,27 +1514,31 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>85002</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="52">
+        <v>44854</v>
+      </c>
+      <c r="B21" s="13">
+        <v>32970</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44851</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1550,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1566,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1582,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1598,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1614,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1630,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1646,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1662,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,11 +1678,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,11 +1694,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1702,11 +1710,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1718,11 +1726,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,11 +1743,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44851</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1760,7 +1768,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>512630</v>
+        <v>545600</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1768,7 +1776,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>386056</v>
+        <v>427628</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1791,7 +1799,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-393055</v>
+        <v>-442055</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>375</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-374960</v>
+        <v>-423960</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-345564</v>
+        <v>-394564</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-330764</v>
+        <v>-379764</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-292682</v>
+        <v>-341682</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-274953</v>
+        <v>-323953</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-229881</v>
+        <v>-278881</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1326,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-205690</v>
+        <v>-254690</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-170287</v>
+        <v>-219287</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-136329</v>
+        <v>-185329</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1398,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-112568</v>
+        <v>-161568</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1422,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-71036</v>
+        <v>-120036</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1446,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-49404</v>
+        <v>-98404</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-9363</v>
+        <v>-58363</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1494,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>45223</v>
+        <v>-3777</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,15 +1510,19 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="15">
+        <v>44898</v>
+      </c>
+      <c r="G20" s="16">
+        <v>49000</v>
+      </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>85002</v>
+        <v>36002</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,27 +1538,31 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>68972</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="52">
+        <v>44872</v>
+      </c>
+      <c r="B22" s="13">
+        <v>46823</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1574,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1590,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1606,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1622,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1638,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1654,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1670,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1678,11 +1686,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1694,11 +1702,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1710,11 +1718,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1726,11 +1734,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1743,11 +1751,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44867</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1768,7 +1776,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>545600</v>
+        <v>592423</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1776,7 +1784,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>427628</v>
+        <v>476628</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1799,7 +1807,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>CUSTOMER NAME -KUMAR BROTHERS</t>
+  </si>
+  <si>
+    <t>GS9-12-22</t>
+  </si>
+  <si>
+    <t>palna 470*1</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-442055</v>
+        <v>-502285</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-423960</v>
+        <v>-484190</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-394564</v>
+        <v>-454794</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1236,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-379764</v>
+        <v>-439994</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1260,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-341682</v>
+        <v>-401912</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1284,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-323953</v>
+        <v>-384183</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1308,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-278881</v>
+        <v>-339111</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1332,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-254690</v>
+        <v>-314920</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1350,11 +1356,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-219287</v>
+        <v>-279517</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1380,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-185329</v>
+        <v>-245559</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1404,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-161568</v>
+        <v>-221798</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,14 +1428,14 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-120036</v>
+        <v>-180266</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="52">
         <v>44774</v>
       </c>
@@ -1446,14 +1452,14 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-98404</v>
+        <v>-158634</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="52">
         <v>44783</v>
       </c>
@@ -1470,14 +1476,14 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-58363</v>
+        <v>-118593</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="52">
         <v>44795</v>
       </c>
@@ -1494,14 +1500,14 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-3777</v>
+        <v>-64007</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="52">
         <v>44799</v>
       </c>
@@ -1518,14 +1524,14 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>36002</v>
+        <v>-24228</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="52">
         <v>44854</v>
       </c>
@@ -1534,18 +1540,25 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="16">
+        <v>470</v>
+      </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>68972</v>
+        <v>8742</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="52">
         <v>44872</v>
       </c>
@@ -1554,50 +1567,62 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="15">
+        <v>44915</v>
+      </c>
+      <c r="G22" s="16">
+        <v>59760</v>
+      </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>55565</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="13"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="52">
+        <v>44901</v>
+      </c>
+      <c r="B23" s="13">
+        <v>28053</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>83618</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="52">
+        <v>44904</v>
+      </c>
+      <c r="B24" s="13">
+        <v>24027</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -1606,14 +1631,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -1622,14 +1647,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1638,14 +1663,14 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1654,14 +1679,14 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1670,14 +1695,14 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1686,14 +1711,14 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1702,14 +1727,14 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1718,11 +1743,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1734,11 +1759,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44898</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1751,11 +1776,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44898</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1776,7 +1801,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>592423</v>
+        <v>644503</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1784,7 +1809,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>476628</v>
+        <v>536858</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1807,7 +1832,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>115795</v>
+        <v>107645</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-502285</v>
+        <v>-531073</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-484190</v>
+        <v>-512978</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-454794</v>
+        <v>-483582</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-439994</v>
+        <v>-468782</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-401912</v>
+        <v>-430700</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-384183</v>
+        <v>-412971</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-339111</v>
+        <v>-367899</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-314920</v>
+        <v>-343708</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-279517</v>
+        <v>-308305</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1380,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-245559</v>
+        <v>-274347</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1404,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-221798</v>
+        <v>-250586</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-180266</v>
+        <v>-209054</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-158634</v>
+        <v>-187422</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-118593</v>
+        <v>-147381</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-64007</v>
+        <v>-92795</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-24228</v>
+        <v>-53016</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>8742</v>
+        <v>-20046</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>55565</v>
+        <v>26777</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,15 +1591,19 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="15">
+        <v>44926</v>
+      </c>
+      <c r="G23" s="16">
+        <v>28788</v>
+      </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>83618</v>
+        <v>54830</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,27 +1619,31 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>78857</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="52">
+        <v>44916</v>
+      </c>
+      <c r="B25" s="13">
+        <v>46820</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1655,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,11 +1671,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1679,11 +1687,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1695,11 +1703,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1711,11 +1719,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1727,11 +1735,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1743,11 +1751,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1759,11 +1767,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1776,11 +1784,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44916</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1801,7 +1809,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>644503</v>
+        <v>691323</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1809,7 +1817,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>536858</v>
+        <v>565646</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1832,7 +1840,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-531073</v>
+        <v>-580073</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>434</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-512978</v>
+        <v>-561978</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-483582</v>
+        <v>-532582</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-468782</v>
+        <v>-517782</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-430700</v>
+        <v>-479700</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-412971</v>
+        <v>-461971</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-367899</v>
+        <v>-416899</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-343708</v>
+        <v>-392708</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-308305</v>
+        <v>-357305</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1380,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-274347</v>
+        <v>-323347</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1404,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-250586</v>
+        <v>-299586</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-209054</v>
+        <v>-258054</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-187422</v>
+        <v>-236422</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-147381</v>
+        <v>-196381</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-92795</v>
+        <v>-141795</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-53016</v>
+        <v>-102016</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-20046</v>
+        <v>-69046</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>26777</v>
+        <v>-22223</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1599,11 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>54830</v>
+        <v>5830</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,15 +1615,19 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="15">
+        <v>44944</v>
+      </c>
+      <c r="G24" s="16">
+        <v>49000</v>
+      </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>78857</v>
+        <v>29857</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,27 +1643,31 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>76677</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="52">
+        <v>44567</v>
+      </c>
+      <c r="B26" s="13">
+        <v>30068</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="18"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,11 +1679,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1687,11 +1695,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1703,11 +1711,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1719,11 +1727,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,11 +1743,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1751,11 +1759,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1767,11 +1775,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1784,11 +1792,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44926</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1809,7 +1817,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>691323</v>
+        <v>721391</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1817,7 +1825,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>565646</v>
+        <v>614646</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1840,7 +1848,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>125677</v>
+        <v>106745</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="52">
-        <v>44567</v>
+        <v>44932</v>
       </c>
       <c r="B26" s="13">
         <v>30068</v>
@@ -1667,23 +1667,27 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>389</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="52">
+        <v>44954</v>
+      </c>
+      <c r="B27" s="13">
+        <v>54496</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="18"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1695,11 +1699,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1711,11 +1715,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1727,11 +1731,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1743,11 +1747,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1759,11 +1763,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1775,11 +1779,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1792,11 +1796,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1817,7 +1821,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>721391</v>
+        <v>775887</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1848,7 +1852,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-580073</v>
+        <v>-629073</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-561978</v>
+        <v>-610978</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-532582</v>
+        <v>-581582</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-517782</v>
+        <v>-566782</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-479700</v>
+        <v>-528700</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-461971</v>
+        <v>-510971</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-416899</v>
+        <v>-465899</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-392708</v>
+        <v>-441708</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-357305</v>
+        <v>-406305</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1380,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-323347</v>
+        <v>-372347</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1404,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-299586</v>
+        <v>-348586</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-258054</v>
+        <v>-307054</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-236422</v>
+        <v>-285422</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-196381</v>
+        <v>-245381</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-141795</v>
+        <v>-190795</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-102016</v>
+        <v>-151016</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-69046</v>
+        <v>-118046</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-22223</v>
+        <v>-71223</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1599,11 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>5830</v>
+        <v>-43170</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1623,11 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>29857</v>
+        <v>-19143</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,15 +1639,19 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="15">
+        <v>44960</v>
+      </c>
+      <c r="G25" s="16">
+        <v>49000</v>
+      </c>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>76677</v>
+        <v>27677</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,11 +1667,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>106745</v>
+        <v>57745</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,11 +1687,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1699,11 +1703,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44958</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,11 +1719,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44958</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1731,11 +1735,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44958</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1747,11 +1751,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44958</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1763,11 +1767,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44958</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1779,11 +1783,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44958</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1796,11 +1800,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44958</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1829,7 +1833,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>614646</v>
+        <v>663646</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1852,7 +1856,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1691,23 +1691,27 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="52">
+        <v>44963</v>
+      </c>
+      <c r="B28" s="13">
+        <v>41824</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1719,11 +1723,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,11 +1739,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1751,11 +1755,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1767,11 +1771,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1783,11 +1787,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44963</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1800,11 +1804,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44963</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1825,7 +1829,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>775887</v>
+        <v>817711</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1856,7 +1860,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>112241</v>
+        <v>154065</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1698,16 +1698,14 @@
       <c r="A28" s="52">
         <v>44963</v>
       </c>
-      <c r="B28" s="13">
-        <v>41824</v>
-      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1723,7 +1721,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1739,7 +1737,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1755,7 +1753,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1771,7 +1769,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1787,7 +1785,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1804,7 +1802,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1829,7 +1827,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>817711</v>
+        <v>775887</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1860,7 +1858,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>154065</v>
+        <v>112241</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>palna 470*1</t>
+  </si>
+  <si>
+    <t>BOX</t>
   </si>
 </sst>
 </file>
@@ -294,7 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -391,17 +394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,6 +415,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-629073</v>
+        <v>-677073</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,7 +1178,7 @@
       <c r="B6" s="8">
         <v>18095</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
         <v>44585</v>
@@ -1188,23 +1188,23 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-610978</v>
+        <v>-658978</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
+      <c r="A7" s="47">
         <v>44592</v>
       </c>
       <c r="B7" s="16">
         <v>29396</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
-      <c r="F7" s="49">
+      <c r="D7" s="49"/>
+      <c r="F7" s="47">
         <v>44609</v>
       </c>
       <c r="G7" s="16">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-581582</v>
+        <v>-629582</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,15 +1236,15 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-566782</v>
+        <v>-614782</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
+      <c r="A9" s="50">
         <v>44627</v>
       </c>
       <c r="B9" s="13">
@@ -1260,15 +1260,15 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-528700</v>
+        <v>-576700</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
+      <c r="A10" s="50">
         <v>44628</v>
       </c>
       <c r="B10" s="13">
@@ -1284,15 +1284,15 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-510971</v>
+        <v>-558971</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52">
+      <c r="A11" s="50">
         <v>44680</v>
       </c>
       <c r="B11" s="17">
@@ -1308,15 +1308,15 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-465899</v>
+        <v>-513899</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52">
+      <c r="A12" s="50">
         <v>44686</v>
       </c>
       <c r="B12" s="17">
@@ -1332,15 +1332,15 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-441708</v>
+        <v>-489708</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52">
+      <c r="A13" s="50">
         <v>44740</v>
       </c>
       <c r="B13" s="13">
@@ -1356,15 +1356,15 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-406305</v>
+        <v>-454305</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52">
+      <c r="A14" s="50">
         <v>44741</v>
       </c>
       <c r="B14" s="17">
@@ -1380,15 +1380,15 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-372347</v>
+        <v>-420347</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52">
+      <c r="A15" s="50">
         <v>44746</v>
       </c>
       <c r="B15" s="17">
@@ -1404,15 +1404,15 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-348586</v>
+        <v>-396586</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="52">
+      <c r="A16" s="50">
         <v>44772</v>
       </c>
       <c r="B16" s="17">
@@ -1428,15 +1428,15 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-307054</v>
+        <v>-355054</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="52">
+      <c r="A17" s="50">
         <v>44774</v>
       </c>
       <c r="B17" s="13">
@@ -1452,15 +1452,15 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-285422</v>
+        <v>-333422</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="52">
+      <c r="A18" s="50">
         <v>44783</v>
       </c>
       <c r="B18" s="13">
@@ -1476,15 +1476,15 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-245381</v>
+        <v>-293381</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="52">
+      <c r="A19" s="50">
         <v>44795</v>
       </c>
       <c r="B19" s="13">
@@ -1500,15 +1500,15 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-190795</v>
+        <v>-238795</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="52">
+      <c r="A20" s="50">
         <v>44799</v>
       </c>
       <c r="B20" s="13">
@@ -1524,15 +1524,15 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-151016</v>
+        <v>-199016</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="52">
+      <c r="A21" s="50">
         <v>44854</v>
       </c>
       <c r="B21" s="13">
@@ -1548,18 +1548,18 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-118046</v>
+        <v>-166046</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="52">
+      <c r="A22" s="50">
         <v>44872</v>
       </c>
       <c r="B22" s="13">
@@ -1575,15 +1575,15 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-71223</v>
+        <v>-119223</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="52">
+      <c r="A23" s="50">
         <v>44901</v>
       </c>
       <c r="B23" s="13">
@@ -1599,15 +1599,15 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-43170</v>
+        <v>-91170</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="52">
+      <c r="A24" s="50">
         <v>44904</v>
       </c>
       <c r="B24" s="13">
@@ -1623,15 +1623,15 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-19143</v>
+        <v>-67143</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="52">
+      <c r="A25" s="50">
         <v>44916</v>
       </c>
       <c r="B25" s="13">
@@ -1647,15 +1647,15 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>27677</v>
+        <v>-20323</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="52">
+      <c r="A26" s="50">
         <v>44932</v>
       </c>
       <c r="B26" s="13">
@@ -1663,19 +1663,23 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="18"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="15">
+        <v>44984</v>
+      </c>
+      <c r="G26" s="16">
+        <v>48000</v>
+      </c>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>57745</v>
+        <v>9745</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="52">
+      <c r="A27" s="50">
         <v>44954</v>
       </c>
       <c r="B27" s="13">
@@ -1687,49 +1691,55 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>64241</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="52">
+      <c r="A28" s="50">
         <v>44963</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="13">
+        <v>41824</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>106065</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="50">
+        <v>44977</v>
+      </c>
+      <c r="B29" s="13">
+        <v>52038</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>158103</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1737,15 +1747,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>158103</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
@@ -1753,15 +1763,15 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>158103</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
@@ -1769,15 +1779,15 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>158103</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="18"/>
@@ -1785,15 +1795,15 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>112241</v>
+        <v>158103</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
@@ -1802,11 +1812,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>112241</v>
+        <v>158103</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1827,7 +1837,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>775887</v>
+        <v>869749</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1835,7 +1845,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>663646</v>
+        <v>711646</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1858,7 +1868,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>112241</v>
+        <v>158103</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2222,231 +2232,1282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="43"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="43"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="43"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="43"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="43"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="43"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="43"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="43"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="43"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="43"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="43"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="43"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="43"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="43"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="43"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="43"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="43"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="43"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="43"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="46"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="43">
+        <f>SUM(500+1)</f>
+        <v>501</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="43">
+        <v>502</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="43">
+        <v>503</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43">
+        <v>504</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43">
+        <v>505</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43">
+        <v>506</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
+        <v>2</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="43">
+        <v>507</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
+        <v>2</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43">
+        <v>508</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="43">
+        <v>509</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43">
+        <v>2</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="43">
+        <v>510</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
+        <v>2</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="43">
+        <v>511</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="43">
+        <v>512</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
+        <v>2</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="43">
+        <v>513</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
+        <v>2</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="43">
+        <v>514</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43">
+        <v>2</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="43">
+        <v>515</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43">
+        <v>2</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="43">
+        <v>516</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43">
+        <v>2</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="43">
+        <v>517</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43">
+        <v>2</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="43">
+        <v>518</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43">
+        <v>2</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="43">
+        <v>519</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43">
+        <v>2</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="43">
+        <v>520</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43">
+        <v>2</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="43">
+        <v>521</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="43">
+        <v>522</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43">
+        <v>2</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="43">
+        <v>523</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43">
+        <v>2</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="43">
+        <v>524</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43">
+        <v>2</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="43">
+        <v>525</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43">
+        <v>2</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="43">
+        <v>526</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="53">
+        <v>1</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="43">
+        <v>527</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="53">
+        <v>1</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="43">
+        <v>528</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="53">
+        <v>1</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="43">
+        <v>529</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="53">
+        <v>1</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="43">
+        <v>530</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="53">
+        <v>1</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="43">
+        <v>531</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="53">
+        <v>1</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="43">
+        <v>532</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="53">
+        <v>1</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43">
+        <v>533</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="53">
+        <v>1</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="43">
+        <v>534</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="53">
+        <v>1</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="43">
+        <v>535</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="53">
+        <v>1</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="43">
+        <v>217</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="53">
+        <v>2</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="43">
+        <v>219</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="53">
+        <v>2</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="43">
+        <v>220</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="53">
+        <v>2</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="43">
+        <v>221</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="53">
+        <v>2</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="43">
+        <v>222</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="53">
+        <v>2</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="43">
+        <v>223</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="53">
+        <v>2</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="43">
+        <v>224</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="53">
+        <v>2</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="43">
+        <v>226</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="53">
+        <v>2</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="43">
+        <v>232</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="53">
+        <v>2</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="43">
+        <v>233</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="53">
+        <v>2</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="43">
+        <v>234</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="53">
+        <v>2</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="43">
+        <v>235</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="53">
+        <v>2</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="43">
+        <v>236</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="53">
+        <v>2</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="43">
+        <v>237</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="53">
+        <v>2</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="43">
+        <v>238</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="53">
+        <v>2</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="45"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="43">
+        <v>239</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="53">
+        <v>2</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="43">
+        <v>240</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="53">
+        <v>2</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="43">
+        <v>241</v>
+      </c>
+      <c r="B53" s="43"/>
+      <c r="C53" s="53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="43">
+        <v>242</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="53">
+        <v>2</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="43">
+        <v>243</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="53">
+        <v>2</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="43">
+        <v>244</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="53">
+        <v>2</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="43">
+        <v>245</v>
+      </c>
+      <c r="B57" s="43"/>
+      <c r="C57" s="53">
+        <v>2</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="43">
+        <v>246</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="53">
+        <v>2</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="43">
+        <v>247</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="53">
+        <v>2</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="43">
+        <v>248</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="53">
+        <v>2</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="43">
+        <v>101</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="53">
+        <v>2</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="43">
+        <v>105</v>
+      </c>
+      <c r="B62" s="43"/>
+      <c r="C62" s="53">
+        <v>2</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="43">
+        <v>108</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="53">
+        <v>2</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="43">
+        <v>123</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="53">
+        <v>2</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="43">
+        <v>125</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="53">
+        <v>2</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="43">
+        <v>126</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="53">
+        <v>2</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="43">
+        <v>127</v>
+      </c>
+      <c r="B67" s="43"/>
+      <c r="C67" s="53">
+        <v>2</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="43">
+        <v>128</v>
+      </c>
+      <c r="B68" s="43"/>
+      <c r="C68" s="53">
+        <v>2</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="43">
+        <v>129</v>
+      </c>
+      <c r="B69" s="43"/>
+      <c r="C69" s="53">
+        <v>2</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="43">
+        <v>130</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="53">
+        <v>2</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="43">
+        <v>131</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="53">
+        <v>2</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="43">
+        <v>133</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="53">
+        <v>2</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="43">
+        <v>141</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="53">
+        <v>2</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="43">
+        <v>145</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="53">
+        <v>2</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="43">
+        <v>148</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="53">
+        <v>2</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="43">
+        <v>149</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="53">
+        <v>2</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="43">
+        <v>150</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="53">
+        <v>2</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="43">
+        <v>154</v>
+      </c>
+      <c r="B78" s="43"/>
+      <c r="C78" s="53">
+        <v>2</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="43">
+        <v>155</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="53">
+        <v>2</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="43">
+        <v>156</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="53">
+        <v>2</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="43">
+        <v>157</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="53">
+        <v>2</v>
+      </c>
+      <c r="D81" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="43">
+        <v>171</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="53">
+        <v>2</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="43">
+        <v>172</v>
+      </c>
+      <c r="B83" s="43"/>
+      <c r="C83" s="53">
+        <v>2</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="43">
+        <v>173</v>
+      </c>
+      <c r="B84" s="43"/>
+      <c r="C84" s="53">
+        <v>2</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="43">
+        <v>174</v>
+      </c>
+      <c r="B85" s="43"/>
+      <c r="C85" s="53">
+        <v>2</v>
+      </c>
+      <c r="D85" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="43">
+        <v>175</v>
+      </c>
+      <c r="B86" s="43"/>
+      <c r="C86" s="53">
+        <v>2</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="43">
+        <v>176</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="53">
+        <v>2</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="43">
+        <v>31</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="53">
+        <v>4</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="43">
+        <v>43</v>
+      </c>
+      <c r="B89" s="43"/>
+      <c r="C89" s="53">
+        <v>4</v>
+      </c>
+      <c r="D89" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="43">
+        <v>65</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="53">
+        <v>4</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="43">
+        <v>66</v>
+      </c>
+      <c r="B91" s="43"/>
+      <c r="C91" s="53">
+        <v>4</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="43">
+        <v>181</v>
+      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="53">
+        <v>4</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="43">
+        <v>183</v>
+      </c>
+      <c r="B93" s="43"/>
+      <c r="C93" s="53">
+        <v>4</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="43">
+        <v>184</v>
+      </c>
+      <c r="B94" s="43"/>
+      <c r="C94" s="53">
+        <v>4</v>
+      </c>
+      <c r="D94" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="43">
+        <v>186</v>
+      </c>
+      <c r="B95" s="43"/>
+      <c r="C95" s="53">
+        <v>4</v>
+      </c>
+      <c r="D95" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="43">
+        <v>187</v>
+      </c>
+      <c r="B96" s="43"/>
+      <c r="C96" s="53">
+        <v>4</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="43">
+        <v>189</v>
+      </c>
+      <c r="B97" s="43"/>
+      <c r="C97" s="53">
+        <v>4</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="43">
+        <v>191</v>
+      </c>
+      <c r="B98" s="43"/>
+      <c r="C98" s="53">
+        <v>4</v>
+      </c>
+      <c r="D98" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="43">
+        <v>192</v>
+      </c>
+      <c r="B99" s="43"/>
+      <c r="C99" s="53">
+        <v>4</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="43">
+        <v>193</v>
+      </c>
+      <c r="B100" s="43"/>
+      <c r="C100" s="53">
+        <v>4</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44984</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,39 +1735,47 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="50">
+        <v>44989</v>
+      </c>
+      <c r="B30" s="13">
+        <v>28598</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>158103</v>
+        <v>186701</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="50">
         <v>44995</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="13">
+        <v>17204</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>158103</v>
+        <v>203905</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44995</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1779,11 +1787,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>158103</v>
+        <v>203905</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44995</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1795,11 +1803,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>158103</v>
+        <v>203905</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44995</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1812,11 +1820,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>158103</v>
+        <v>203905</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44995</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1837,7 +1845,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>869749</v>
+        <v>915551</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1868,7 +1876,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>158103</v>
+        <v>203905</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1079,7 +1079,7 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44999</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-677073</v>
+        <v>-730126</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-658978</v>
+        <v>-712031</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-629582</v>
+        <v>-682635</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-614782</v>
+        <v>-667835</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-576700</v>
+        <v>-629753</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-558971</v>
+        <v>-612024</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-513899</v>
+        <v>-566952</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-489708</v>
+        <v>-542761</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-454305</v>
+        <v>-507358</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1380,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-420347</v>
+        <v>-473400</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1404,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-396586</v>
+        <v>-449639</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-355054</v>
+        <v>-408107</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-333422</v>
+        <v>-386475</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-293381</v>
+        <v>-346434</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-238795</v>
+        <v>-291848</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-199016</v>
+        <v>-252069</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-166046</v>
+        <v>-219099</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-119223</v>
+        <v>-172276</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1599,11 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-91170</v>
+        <v>-144223</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1623,11 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-67143</v>
+        <v>-120196</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-20323</v>
+        <v>-73376</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,11 +1671,11 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>9745</v>
+        <v>-43308</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1687,15 +1687,19 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="18"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="15">
+        <v>45010</v>
+      </c>
+      <c r="G27" s="16">
+        <v>53053</v>
+      </c>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>64241</v>
+        <v>11188</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1711,11 +1715,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>106065</v>
+        <v>53012</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1731,11 +1735,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>158103</v>
+        <v>105050</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1751,11 +1755,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>186701</v>
+        <v>133648</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1771,27 +1775,31 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>203905</v>
+        <v>150852</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="50">
+        <v>45014</v>
+      </c>
+      <c r="B32" s="13">
+        <v>72314</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>203905</v>
+        <v>223166</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45007</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1803,11 +1811,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>203905</v>
+        <v>223166</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45007</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1820,11 +1828,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>203905</v>
+        <v>223166</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45007</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1845,7 +1853,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>915551</v>
+        <v>987865</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1853,7 +1861,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>711646</v>
+        <v>764699</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1876,7 +1884,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>203905</v>
+        <v>223166</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -409,9 +409,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1360,7 +1357,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1381,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1405,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1429,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1453,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1477,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1501,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1525,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1549,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1579,7 +1576,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1600,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1624,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1648,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1672,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1699,7 +1696,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1719,7 +1716,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1727,7 +1724,7 @@
         <v>44977</v>
       </c>
       <c r="B29" s="13">
-        <v>52038</v>
+        <v>49218</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
@@ -1735,19 +1732,19 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>105050</v>
+        <v>102230</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="50">
-        <v>44989</v>
+        <v>44978</v>
       </c>
       <c r="B30" s="13">
-        <v>28598</v>
+        <v>23422</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1755,19 +1752,19 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>133648</v>
+        <v>125652</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="50">
-        <v>44995</v>
+        <v>44989</v>
       </c>
       <c r="B31" s="13">
-        <v>17204</v>
+        <v>28598</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
@@ -1775,19 +1772,19 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>150852</v>
+        <v>154250</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="50">
-        <v>45014</v>
+        <v>44995</v>
       </c>
       <c r="B32" s="13">
-        <v>72314</v>
+        <v>17204</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
@@ -1795,31 +1792,35 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>223166</v>
+        <v>171454</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="50">
+        <v>45014</v>
+      </c>
+      <c r="B33" s="13">
+        <v>72314</v>
+      </c>
       <c r="C33" s="14"/>
       <c r="D33" s="18"/>
       <c r="F33" s="15"/>
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>223166</v>
+        <v>243768</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45019</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
@@ -1828,11 +1829,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>223166</v>
+        <v>243768</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45019</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1853,7 +1854,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>987865</v>
+        <v>1008467</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>223166</v>
+        <v>243768</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2619,7 +2620,7 @@
         <v>526</v>
       </c>
       <c r="B26" s="43"/>
-      <c r="C26" s="53">
+      <c r="C26" s="52">
         <v>1</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -2633,7 +2634,7 @@
         <v>527</v>
       </c>
       <c r="B27" s="43"/>
-      <c r="C27" s="53">
+      <c r="C27" s="52">
         <v>1</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -2647,7 +2648,7 @@
         <v>528</v>
       </c>
       <c r="B28" s="43"/>
-      <c r="C28" s="53">
+      <c r="C28" s="52">
         <v>1</v>
       </c>
       <c r="D28" s="44" t="s">
@@ -2661,7 +2662,7 @@
         <v>529</v>
       </c>
       <c r="B29" s="43"/>
-      <c r="C29" s="53">
+      <c r="C29" s="52">
         <v>1</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -2675,7 +2676,7 @@
         <v>530</v>
       </c>
       <c r="B30" s="43"/>
-      <c r="C30" s="53">
+      <c r="C30" s="52">
         <v>1</v>
       </c>
       <c r="D30" s="44" t="s">
@@ -2689,7 +2690,7 @@
         <v>531</v>
       </c>
       <c r="B31" s="43"/>
-      <c r="C31" s="53">
+      <c r="C31" s="52">
         <v>1</v>
       </c>
       <c r="D31" s="44" t="s">
@@ -2701,7 +2702,7 @@
         <v>532</v>
       </c>
       <c r="B32" s="43"/>
-      <c r="C32" s="53">
+      <c r="C32" s="52">
         <v>1</v>
       </c>
       <c r="D32" s="44" t="s">
@@ -2713,7 +2714,7 @@
         <v>533</v>
       </c>
       <c r="B33" s="43"/>
-      <c r="C33" s="53">
+      <c r="C33" s="52">
         <v>1</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -2725,7 +2726,7 @@
         <v>534</v>
       </c>
       <c r="B34" s="43"/>
-      <c r="C34" s="53">
+      <c r="C34" s="52">
         <v>1</v>
       </c>
       <c r="D34" s="44" t="s">
@@ -2737,7 +2738,7 @@
         <v>535</v>
       </c>
       <c r="B35" s="43"/>
-      <c r="C35" s="53">
+      <c r="C35" s="52">
         <v>1</v>
       </c>
       <c r="D35" s="44" t="s">
@@ -2749,7 +2750,7 @@
         <v>217</v>
       </c>
       <c r="B36" s="43"/>
-      <c r="C36" s="53">
+      <c r="C36" s="52">
         <v>2</v>
       </c>
       <c r="D36" s="44" t="s">
@@ -2761,7 +2762,7 @@
         <v>219</v>
       </c>
       <c r="B37" s="43"/>
-      <c r="C37" s="53">
+      <c r="C37" s="52">
         <v>2</v>
       </c>
       <c r="D37" s="44" t="s">
@@ -2773,7 +2774,7 @@
         <v>220</v>
       </c>
       <c r="B38" s="43"/>
-      <c r="C38" s="53">
+      <c r="C38" s="52">
         <v>2</v>
       </c>
       <c r="D38" s="44" t="s">
@@ -2785,7 +2786,7 @@
         <v>221</v>
       </c>
       <c r="B39" s="43"/>
-      <c r="C39" s="53">
+      <c r="C39" s="52">
         <v>2</v>
       </c>
       <c r="D39" s="44" t="s">
@@ -2797,7 +2798,7 @@
         <v>222</v>
       </c>
       <c r="B40" s="43"/>
-      <c r="C40" s="53">
+      <c r="C40" s="52">
         <v>2</v>
       </c>
       <c r="D40" s="44" t="s">
@@ -2809,7 +2810,7 @@
         <v>223</v>
       </c>
       <c r="B41" s="43"/>
-      <c r="C41" s="53">
+      <c r="C41" s="52">
         <v>2</v>
       </c>
       <c r="D41" s="44" t="s">
@@ -2821,7 +2822,7 @@
         <v>224</v>
       </c>
       <c r="B42" s="43"/>
-      <c r="C42" s="53">
+      <c r="C42" s="52">
         <v>2</v>
       </c>
       <c r="D42" s="44" t="s">
@@ -2833,7 +2834,7 @@
         <v>226</v>
       </c>
       <c r="B43" s="43"/>
-      <c r="C43" s="53">
+      <c r="C43" s="52">
         <v>2</v>
       </c>
       <c r="D43" s="44" t="s">
@@ -2845,7 +2846,7 @@
         <v>232</v>
       </c>
       <c r="B44" s="43"/>
-      <c r="C44" s="53">
+      <c r="C44" s="52">
         <v>2</v>
       </c>
       <c r="D44" s="44" t="s">
@@ -2857,7 +2858,7 @@
         <v>233</v>
       </c>
       <c r="B45" s="43"/>
-      <c r="C45" s="53">
+      <c r="C45" s="52">
         <v>2</v>
       </c>
       <c r="D45" s="44" t="s">
@@ -2869,7 +2870,7 @@
         <v>234</v>
       </c>
       <c r="B46" s="43"/>
-      <c r="C46" s="53">
+      <c r="C46" s="52">
         <v>2</v>
       </c>
       <c r="D46" s="44" t="s">
@@ -2881,7 +2882,7 @@
         <v>235</v>
       </c>
       <c r="B47" s="43"/>
-      <c r="C47" s="53">
+      <c r="C47" s="52">
         <v>2</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -2893,7 +2894,7 @@
         <v>236</v>
       </c>
       <c r="B48" s="43"/>
-      <c r="C48" s="53">
+      <c r="C48" s="52">
         <v>2</v>
       </c>
       <c r="D48" s="44" t="s">
@@ -2905,7 +2906,7 @@
         <v>237</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="53">
+      <c r="C49" s="52">
         <v>2</v>
       </c>
       <c r="D49" s="44" t="s">
@@ -2917,7 +2918,7 @@
         <v>238</v>
       </c>
       <c r="B50" s="43"/>
-      <c r="C50" s="53">
+      <c r="C50" s="52">
         <v>2</v>
       </c>
       <c r="D50" s="44" t="s">
@@ -2930,7 +2931,7 @@
         <v>239</v>
       </c>
       <c r="B51" s="43"/>
-      <c r="C51" s="53">
+      <c r="C51" s="52">
         <v>2</v>
       </c>
       <c r="D51" s="44" t="s">
@@ -2942,7 +2943,7 @@
         <v>240</v>
       </c>
       <c r="B52" s="43"/>
-      <c r="C52" s="53">
+      <c r="C52" s="52">
         <v>2</v>
       </c>
       <c r="D52" s="44" t="s">
@@ -2954,7 +2955,7 @@
         <v>241</v>
       </c>
       <c r="B53" s="43"/>
-      <c r="C53" s="53">
+      <c r="C53" s="52">
         <v>2</v>
       </c>
       <c r="D53" s="44" t="s">
@@ -2966,7 +2967,7 @@
         <v>242</v>
       </c>
       <c r="B54" s="43"/>
-      <c r="C54" s="53">
+      <c r="C54" s="52">
         <v>2</v>
       </c>
       <c r="D54" s="44" t="s">
@@ -2978,7 +2979,7 @@
         <v>243</v>
       </c>
       <c r="B55" s="43"/>
-      <c r="C55" s="53">
+      <c r="C55" s="52">
         <v>2</v>
       </c>
       <c r="D55" s="44" t="s">
@@ -2990,7 +2991,7 @@
         <v>244</v>
       </c>
       <c r="B56" s="43"/>
-      <c r="C56" s="53">
+      <c r="C56" s="52">
         <v>2</v>
       </c>
       <c r="D56" s="44" t="s">
@@ -3002,7 +3003,7 @@
         <v>245</v>
       </c>
       <c r="B57" s="43"/>
-      <c r="C57" s="53">
+      <c r="C57" s="52">
         <v>2</v>
       </c>
       <c r="D57" s="44" t="s">
@@ -3014,7 +3015,7 @@
         <v>246</v>
       </c>
       <c r="B58" s="43"/>
-      <c r="C58" s="53">
+      <c r="C58" s="52">
         <v>2</v>
       </c>
       <c r="D58" s="44" t="s">
@@ -3026,7 +3027,7 @@
         <v>247</v>
       </c>
       <c r="B59" s="43"/>
-      <c r="C59" s="53">
+      <c r="C59" s="52">
         <v>2</v>
       </c>
       <c r="D59" s="44" t="s">
@@ -3038,7 +3039,7 @@
         <v>248</v>
       </c>
       <c r="B60" s="43"/>
-      <c r="C60" s="53">
+      <c r="C60" s="52">
         <v>2</v>
       </c>
       <c r="D60" s="44" t="s">
@@ -3050,7 +3051,7 @@
         <v>101</v>
       </c>
       <c r="B61" s="43"/>
-      <c r="C61" s="53">
+      <c r="C61" s="52">
         <v>2</v>
       </c>
       <c r="D61" s="44" t="s">
@@ -3062,7 +3063,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="43"/>
-      <c r="C62" s="53">
+      <c r="C62" s="52">
         <v>2</v>
       </c>
       <c r="D62" s="44" t="s">
@@ -3074,7 +3075,7 @@
         <v>108</v>
       </c>
       <c r="B63" s="43"/>
-      <c r="C63" s="53">
+      <c r="C63" s="52">
         <v>2</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -3086,7 +3087,7 @@
         <v>123</v>
       </c>
       <c r="B64" s="43"/>
-      <c r="C64" s="53">
+      <c r="C64" s="52">
         <v>2</v>
       </c>
       <c r="D64" s="44" t="s">
@@ -3098,7 +3099,7 @@
         <v>125</v>
       </c>
       <c r="B65" s="43"/>
-      <c r="C65" s="53">
+      <c r="C65" s="52">
         <v>2</v>
       </c>
       <c r="D65" s="44" t="s">
@@ -3110,7 +3111,7 @@
         <v>126</v>
       </c>
       <c r="B66" s="43"/>
-      <c r="C66" s="53">
+      <c r="C66" s="52">
         <v>2</v>
       </c>
       <c r="D66" s="44" t="s">
@@ -3122,7 +3123,7 @@
         <v>127</v>
       </c>
       <c r="B67" s="43"/>
-      <c r="C67" s="53">
+      <c r="C67" s="52">
         <v>2</v>
       </c>
       <c r="D67" s="44" t="s">
@@ -3134,7 +3135,7 @@
         <v>128</v>
       </c>
       <c r="B68" s="43"/>
-      <c r="C68" s="53">
+      <c r="C68" s="52">
         <v>2</v>
       </c>
       <c r="D68" s="44" t="s">
@@ -3146,7 +3147,7 @@
         <v>129</v>
       </c>
       <c r="B69" s="43"/>
-      <c r="C69" s="53">
+      <c r="C69" s="52">
         <v>2</v>
       </c>
       <c r="D69" s="44" t="s">
@@ -3158,7 +3159,7 @@
         <v>130</v>
       </c>
       <c r="B70" s="43"/>
-      <c r="C70" s="53">
+      <c r="C70" s="52">
         <v>2</v>
       </c>
       <c r="D70" s="44" t="s">
@@ -3170,7 +3171,7 @@
         <v>131</v>
       </c>
       <c r="B71" s="43"/>
-      <c r="C71" s="53">
+      <c r="C71" s="52">
         <v>2</v>
       </c>
       <c r="D71" s="44" t="s">
@@ -3182,7 +3183,7 @@
         <v>133</v>
       </c>
       <c r="B72" s="43"/>
-      <c r="C72" s="53">
+      <c r="C72" s="52">
         <v>2</v>
       </c>
       <c r="D72" s="44" t="s">
@@ -3194,7 +3195,7 @@
         <v>141</v>
       </c>
       <c r="B73" s="43"/>
-      <c r="C73" s="53">
+      <c r="C73" s="52">
         <v>2</v>
       </c>
       <c r="D73" s="44" t="s">
@@ -3206,7 +3207,7 @@
         <v>145</v>
       </c>
       <c r="B74" s="43"/>
-      <c r="C74" s="53">
+      <c r="C74" s="52">
         <v>2</v>
       </c>
       <c r="D74" s="44" t="s">
@@ -3218,7 +3219,7 @@
         <v>148</v>
       </c>
       <c r="B75" s="43"/>
-      <c r="C75" s="53">
+      <c r="C75" s="52">
         <v>2</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -3230,7 +3231,7 @@
         <v>149</v>
       </c>
       <c r="B76" s="43"/>
-      <c r="C76" s="53">
+      <c r="C76" s="52">
         <v>2</v>
       </c>
       <c r="D76" s="44" t="s">
@@ -3242,7 +3243,7 @@
         <v>150</v>
       </c>
       <c r="B77" s="43"/>
-      <c r="C77" s="53">
+      <c r="C77" s="52">
         <v>2</v>
       </c>
       <c r="D77" s="44" t="s">
@@ -3254,7 +3255,7 @@
         <v>154</v>
       </c>
       <c r="B78" s="43"/>
-      <c r="C78" s="53">
+      <c r="C78" s="52">
         <v>2</v>
       </c>
       <c r="D78" s="44" t="s">
@@ -3266,7 +3267,7 @@
         <v>155</v>
       </c>
       <c r="B79" s="43"/>
-      <c r="C79" s="53">
+      <c r="C79" s="52">
         <v>2</v>
       </c>
       <c r="D79" s="44" t="s">
@@ -3278,7 +3279,7 @@
         <v>156</v>
       </c>
       <c r="B80" s="43"/>
-      <c r="C80" s="53">
+      <c r="C80" s="52">
         <v>2</v>
       </c>
       <c r="D80" s="44" t="s">
@@ -3290,7 +3291,7 @@
         <v>157</v>
       </c>
       <c r="B81" s="43"/>
-      <c r="C81" s="53">
+      <c r="C81" s="52">
         <v>2</v>
       </c>
       <c r="D81" s="44" t="s">
@@ -3302,7 +3303,7 @@
         <v>171</v>
       </c>
       <c r="B82" s="43"/>
-      <c r="C82" s="53">
+      <c r="C82" s="52">
         <v>2</v>
       </c>
       <c r="D82" s="44" t="s">
@@ -3314,7 +3315,7 @@
         <v>172</v>
       </c>
       <c r="B83" s="43"/>
-      <c r="C83" s="53">
+      <c r="C83" s="52">
         <v>2</v>
       </c>
       <c r="D83" s="44" t="s">
@@ -3326,7 +3327,7 @@
         <v>173</v>
       </c>
       <c r="B84" s="43"/>
-      <c r="C84" s="53">
+      <c r="C84" s="52">
         <v>2</v>
       </c>
       <c r="D84" s="44" t="s">
@@ -3338,7 +3339,7 @@
         <v>174</v>
       </c>
       <c r="B85" s="43"/>
-      <c r="C85" s="53">
+      <c r="C85" s="52">
         <v>2</v>
       </c>
       <c r="D85" s="44" t="s">
@@ -3350,7 +3351,7 @@
         <v>175</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="53">
+      <c r="C86" s="52">
         <v>2</v>
       </c>
       <c r="D86" s="44" t="s">
@@ -3362,7 +3363,7 @@
         <v>176</v>
       </c>
       <c r="B87" s="43"/>
-      <c r="C87" s="53">
+      <c r="C87" s="52">
         <v>2</v>
       </c>
       <c r="D87" s="44" t="s">
@@ -3374,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B88" s="43"/>
-      <c r="C88" s="53">
+      <c r="C88" s="52">
         <v>4</v>
       </c>
       <c r="D88" s="44" t="s">
@@ -3386,7 +3387,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="43"/>
-      <c r="C89" s="53">
+      <c r="C89" s="52">
         <v>4</v>
       </c>
       <c r="D89" s="44" t="s">
@@ -3398,7 +3399,7 @@
         <v>65</v>
       </c>
       <c r="B90" s="43"/>
-      <c r="C90" s="53">
+      <c r="C90" s="52">
         <v>4</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -3410,7 +3411,7 @@
         <v>66</v>
       </c>
       <c r="B91" s="43"/>
-      <c r="C91" s="53">
+      <c r="C91" s="52">
         <v>4</v>
       </c>
       <c r="D91" s="44" t="s">
@@ -3422,7 +3423,7 @@
         <v>181</v>
       </c>
       <c r="B92" s="43"/>
-      <c r="C92" s="53">
+      <c r="C92" s="52">
         <v>4</v>
       </c>
       <c r="D92" s="44" t="s">
@@ -3434,7 +3435,7 @@
         <v>183</v>
       </c>
       <c r="B93" s="43"/>
-      <c r="C93" s="53">
+      <c r="C93" s="52">
         <v>4</v>
       </c>
       <c r="D93" s="44" t="s">
@@ -3446,7 +3447,7 @@
         <v>184</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="53">
+      <c r="C94" s="52">
         <v>4</v>
       </c>
       <c r="D94" s="44" t="s">
@@ -3458,7 +3459,7 @@
         <v>186</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="53">
+      <c r="C95" s="52">
         <v>4</v>
       </c>
       <c r="D95" s="44" t="s">
@@ -3470,7 +3471,7 @@
         <v>187</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="53">
+      <c r="C96" s="52">
         <v>4</v>
       </c>
       <c r="D96" s="44" t="s">
@@ -3482,7 +3483,7 @@
         <v>189</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="53">
+      <c r="C97" s="52">
         <v>4</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -3494,7 +3495,7 @@
         <v>191</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="53">
+      <c r="C98" s="52">
         <v>4</v>
       </c>
       <c r="D98" s="44" t="s">
@@ -3506,7 +3507,7 @@
         <v>192</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="53">
+      <c r="C99" s="52">
         <v>4</v>
       </c>
       <c r="D99" s="44" t="s">
@@ -3518,7 +3519,7 @@
         <v>193</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="53">
+      <c r="C100" s="52">
         <v>4</v>
       </c>
       <c r="D100" s="44" t="s">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-730126</v>
+        <v>-879215</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-712031</v>
+        <v>-861120</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-682635</v>
+        <v>-831724</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-667835</v>
+        <v>-816924</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-629753</v>
+        <v>-778842</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-612024</v>
+        <v>-761113</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1305,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-566952</v>
+        <v>-716041</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-542761</v>
+        <v>-691850</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-507358</v>
+        <v>-656447</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-473400</v>
+        <v>-622489</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-449639</v>
+        <v>-598728</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1425,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-408107</v>
+        <v>-557196</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1449,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-386475</v>
+        <v>-535564</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1473,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-346434</v>
+        <v>-495523</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1497,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-291848</v>
+        <v>-440937</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1521,11 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-252069</v>
+        <v>-401158</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1545,11 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-219099</v>
+        <v>-368188</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1572,11 +1572,11 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-172276</v>
+        <v>-321365</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-144223</v>
+        <v>-293312</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1620,11 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-120196</v>
+        <v>-269285</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-73376</v>
+        <v>-222465</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-43308</v>
+        <v>-192397</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>11188</v>
+        <v>-137901</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1708,15 +1708,19 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="15">
+        <v>45021</v>
+      </c>
+      <c r="G28" s="16">
+        <v>49000</v>
+      </c>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>53012</v>
+        <v>-96077</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1728,15 +1732,19 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="15">
+        <v>45003</v>
+      </c>
+      <c r="G29" s="16">
+        <v>57851</v>
+      </c>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>102230</v>
+        <v>-46859</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1748,15 +1756,19 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="15">
+        <v>45037</v>
+      </c>
+      <c r="G30" s="16">
+        <v>42238</v>
+      </c>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>125652</v>
+        <v>-23437</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1772,11 +1784,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>154250</v>
+        <v>5161</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1792,11 +1804,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>171454</v>
+        <v>22365</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1812,11 +1824,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>243768</v>
+        <v>94679</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1829,11 +1841,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>243768</v>
+        <v>94679</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1862,7 +1874,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>764699</v>
+        <v>913788</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1885,7 +1897,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>243768</v>
+        <v>94679</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45037</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR DELHI.xlsx
+++ b/IMPORTANT/KUMAR DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-879215</v>
+        <v>-922017</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-861120</v>
+        <v>-903922</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-831724</v>
+        <v>-874526</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-816924</v>
+        <v>-859726</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-778842</v>
+        <v>-821644</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-761113</v>
+        <v>-803915</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1305,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-716041</v>
+        <v>-758843</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-691850</v>
+        <v>-734652</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-656447</v>
+        <v>-699249</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-622489</v>
+        <v>-665291</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-598728</v>
+        <v>-641530</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1425,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-557196</v>
+        <v>-599998</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1449,11 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-535564</v>
+        <v>-578366</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1473,11 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-495523</v>
+        <v>-538325</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1497,11 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-440937</v>
+        <v>-483739</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1521,11 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-401158</v>
+        <v>-443960</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1545,11 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-368188</v>
+        <v>-410990</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1572,11 +1572,11 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-321365</v>
+        <v>-364167</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-293312</v>
+        <v>-336114</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1620,11 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-269285</v>
+        <v>-312087</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-222465</v>
+        <v>-265267</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-192397</v>
+        <v>-235199</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-137901</v>
+        <v>-180703</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1716,11 +1716,11 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-96077</v>
+        <v>-138879</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1740,11 +1740,11 @@
       </c>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-46859</v>
+        <v>-89661</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-23437</v>
+        <v>-66239</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1780,15 +1780,19 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="15">
+        <v>45048</v>
+      </c>
+      <c r="G31" s="16">
+        <v>42802</v>
+      </c>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>5161</v>
+        <v>-37641</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1804,11 +1808,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>22365</v>
+        <v>-20437</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1824,16 +1828,20 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>94679</v>
+        <v>51877</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="51">
+        <v>45040</v>
+      </c>
+      <c r="B34" s="22">
+        <v>30225</v>
+      </c>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
       <c r="E34" s="24"/>
@@ -1841,11 +1849,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>94679</v>
+        <v>82102</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45042</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1866,7 +1874,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>1008467</v>
+        <v>1038692</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1874,7 +1882,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>913788</v>
+        <v>956590</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1897,7 +1905,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>94679</v>
+        <v>82102</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
